--- a/TimeHistory/00 分析流程.xlsx
+++ b/TimeHistory/00 分析流程.xlsx
@@ -38,6 +38,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>normalize_time_history.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scaled Factors, Sa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e2k_loadcase.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e2k_functions, e2k_loadcase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -85,6 +105,19 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
+      <t>輸出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
       <t>選擇用甚麼地震</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,39 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>normalize_time_history.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scaled Factors, Sa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e2k_loadcase.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e2k_functions, e2k_loadcase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>輸出</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -284,6 +284,25 @@
         <charset val="136"/>
       </rPr>
       <t>預期位移</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>選用地震</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -637,14 +656,14 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -652,16 +671,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -669,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -683,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
@@ -692,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -706,10 +725,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -723,10 +742,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/TimeHistory/00 分析流程.xlsx
+++ b/TimeHistory/00 分析流程.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>spectrum.m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,6 +303,104 @@
         <charset val="136"/>
       </rPr>
       <t>選用地震</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>方法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>週期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, SDS SD1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Scaled Factors, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>質量參與係數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>最小週期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>預期位移</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -653,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -748,6 +846,54 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TimeHistory/00 分析流程.xlsx
+++ b/TimeHistory/00 分析流程.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>spectrum.m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,32 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
+      <t>方法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>輸出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
       <t>選擇用甚麼地震</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +179,41 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
+      <t>, SDS SD1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>選擇調整係數的區間</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>週期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">, SDS SD1, </t>
     </r>
     <r>
@@ -185,6 +246,91 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
+      <t>分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> case</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Scaled Factors, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>質量參與係數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>最小週期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>預期位移</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
       <t>正規化</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,104 +449,6 @@
         <charset val="136"/>
       </rPr>
       <t>選用地震</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>方法</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>週期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, SDS SD1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Scaled Factors, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>質量參與係數</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>最小週期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>預期位移</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -751,23 +799,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="2.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -780,13 +834,26 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -794,16 +861,31 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -811,16 +893,31 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -829,68 +926,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/TimeHistory/00 分析流程.xlsx
+++ b/TimeHistory/00 分析流程.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>spectrum.m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +261,63 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>正規化</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>選用地震</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NM</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> case</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Scaled Factors, </t>
     </r>
     <r>
@@ -318,24 +375,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>正規化</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve">, </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -346,37 +387,10 @@
       </rPr>
       <t>選用地震</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, NM</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>分析</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> case</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scaled Factors, Sa, pga</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -410,7 +424,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>最小週期</t>
+      <t>週期</t>
     </r>
     <r>
       <rPr>
@@ -438,17 +452,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>選用地震</t>
+      <t>, sa, pga</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -802,7 +806,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -813,10 +817,10 @@
     <col min="4" max="4" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="2.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
@@ -874,7 +878,7 @@
         <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -903,7 +907,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>7</v>
@@ -914,10 +918,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -931,10 +935,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
